--- a/out/equity/history/INE1TAE01010-Tata Motors Ltd.xlsx
+++ b/out/equity/history/INE1TAE01010-Tata Motors Ltd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       <c r="H2" t="n">
         <v>29587420</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -589,7 +589,7 @@
       <c r="H3" t="n">
         <v>11932306</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45974</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="H4" t="n">
         <v>165471722</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45975</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -695,7 +695,7 @@
       <c r="H5" t="n">
         <v>16996691</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -748,7 +748,7 @@
       <c r="H6" t="n">
         <v>13420847</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45979</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -801,7 +801,7 @@
       <c r="H7" t="n">
         <v>12946600</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -854,7 +854,7 @@
       <c r="H8" t="n">
         <v>9803925</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -907,7 +907,7 @@
       <c r="H9" t="n">
         <v>6051985</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="H10" t="n">
         <v>16628845</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1013,7 +1013,7 @@
       <c r="H11" t="n">
         <v>7651198</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1066,7 +1066,7 @@
       <c r="H12" t="n">
         <v>22644890</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="H13" t="n">
         <v>18486310</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45989</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1172,7 +1172,7 @@
       <c r="H14" t="n">
         <v>12759068</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1225,7 +1225,7 @@
       <c r="H15" t="n">
         <v>8262520</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="H16" t="n">
         <v>11393218</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45994</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1331,7 +1331,7 @@
       <c r="H17" t="n">
         <v>7172223</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1384,7 +1384,7 @@
       <c r="H18" t="n">
         <v>6639650</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45996</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1437,7 +1437,7 @@
       <c r="H19" t="n">
         <v>6920020</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="H20" t="n">
         <v>16098850</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>46000</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="H21" t="n">
         <v>16016921</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>46001</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="H22" t="n">
         <v>9652973</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>46002</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="H23" t="n">
         <v>12364821</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>46003</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1702,7 +1702,7 @@
       <c r="H24" t="n">
         <v>7004575</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>46006</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1755,7 +1755,7 @@
       <c r="H25" t="n">
         <v>10314927</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="H26" t="n">
         <v>10020076</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>46008</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1861,7 +1861,7 @@
       <c r="H27" t="n">
         <v>18637928</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>46009</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1914,7 +1914,7 @@
       <c r="H28" t="n">
         <v>22031532</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -1967,7 +1967,7 @@
       <c r="H29" t="n">
         <v>12040323</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="H30" t="n">
         <v>13778416</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="H31" t="n">
         <v>19577713</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2126,7 +2126,7 @@
       <c r="H32" t="n">
         <v>8996396</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2179,7 +2179,7 @@
       <c r="H33" t="n">
         <v>7138419</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>46020</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2232,7 +2232,7 @@
       <c r="H34" t="n">
         <v>6402020</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>46021</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2285,7 +2285,7 @@
       <c r="H35" t="n">
         <v>6255829</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>46022</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2338,7 +2338,7 @@
       <c r="H36" t="n">
         <v>10080425</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>46023</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="H37" t="n">
         <v>15206978</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>46024</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2444,7 +2444,7 @@
       <c r="H38" t="n">
         <v>15612527</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2497,7 +2497,7 @@
       <c r="H39" t="n">
         <v>8229573</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2550,7 +2550,7 @@
       <c r="H40" t="n">
         <v>13093740</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2603,7 +2603,7 @@
       <c r="H41" t="n">
         <v>11185470</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2656,7 +2656,7 @@
       <c r="H42" t="n">
         <v>15258929</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="H43" t="n">
         <v>10282213</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -2762,7 +2762,7 @@
       <c r="H44" t="n">
         <v>7140525</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -2815,7 +2815,7 @@
       <c r="H45" t="n">
         <v>9747060</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="H46" t="n">
         <v>12588104</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="H47" t="n">
         <v>11000310</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -2974,7 +2974,7 @@
       <c r="H48" t="n">
         <v>9799504</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3027,7 +3027,7 @@
       <c r="H49" t="n">
         <v>13033544</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3080,7 +3080,7 @@
       <c r="H50" t="n">
         <v>13464325</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="H51" t="n">
         <v>11532945</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3152,6 +3152,218 @@
         </is>
       </c>
       <c r="M51" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>443.9</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>454.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>438.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>12022746</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>46049</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>INE1TAE01010</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>467.95</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>470.25</v>
+      </c>
+      <c r="E53" t="n">
+        <v>448.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>449.3</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>12586112</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>INE1TAE01010</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="F54" t="n">
+        <v>473.5</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>11600368</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>46051</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>INE1TAE01010</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>458.5</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>485.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>451</v>
+      </c>
+      <c r="F55" t="n">
+        <v>457</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>15731508</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>46052</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>INE1TAE01010</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>TATCOV</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>BREEZE</t>
         </is>
